--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ngf-Ntrk1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ngf-Ntrk1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,10 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Ngf</t>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.7246536666666668</v>
+        <v>0.27169</v>
       </c>
       <c r="H2">
-        <v>2.173961</v>
+        <v>0.81507</v>
       </c>
       <c r="I2">
-        <v>0.1791272621505297</v>
+        <v>0.04814835840308388</v>
       </c>
       <c r="J2">
-        <v>0.1791272621505298</v>
+        <v>0.04814835840308387</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -549,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.088493</v>
+        <v>0.08849299999999999</v>
       </c>
       <c r="N2">
         <v>0.265479</v>
@@ -561,16 +567,16 @@
         <v>0.9052313210944106</v>
       </c>
       <c r="Q2">
-        <v>0.06412677692433334</v>
+        <v>0.02404266317</v>
       </c>
       <c r="R2">
-        <v>0.5771409923190001</v>
+        <v>0.21638396853</v>
       </c>
       <c r="S2">
-        <v>0.1621516081605489</v>
+        <v>0.04358540208575079</v>
       </c>
       <c r="T2">
-        <v>0.1621516081605489</v>
+        <v>0.04358540208575078</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.7246536666666668</v>
+        <v>0.27169</v>
       </c>
       <c r="H3">
-        <v>2.173961</v>
+        <v>0.81507</v>
       </c>
       <c r="I3">
-        <v>0.1791272621505297</v>
+        <v>0.04814835840308388</v>
       </c>
       <c r="J3">
-        <v>0.1791272621505298</v>
+        <v>0.04814835840308387</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,22 +623,22 @@
         <v>0.027793</v>
       </c>
       <c r="O3">
+        <v>0.09476867890558938</v>
+      </c>
+      <c r="P3">
         <v>0.09476867890558936</v>
       </c>
-      <c r="P3">
-        <v>0.09476867890558935</v>
-      </c>
       <c r="Q3">
-        <v>0.006713433119222224</v>
+        <v>0.002517026723333334</v>
       </c>
       <c r="R3">
-        <v>0.06042089807300001</v>
+        <v>0.02265324051</v>
       </c>
       <c r="S3">
-        <v>0.01697565398998088</v>
+        <v>0.004562956317333092</v>
       </c>
       <c r="T3">
-        <v>0.01697565398998088</v>
+        <v>0.004562956317333091</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -640,13 +646,13 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -655,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.320814666666667</v>
+        <v>0.7246536666666668</v>
       </c>
       <c r="H4">
-        <v>9.962444</v>
+        <v>2.173961</v>
       </c>
       <c r="I4">
-        <v>0.8208727378494701</v>
+        <v>0.1284216734542145</v>
       </c>
       <c r="J4">
-        <v>0.8208727378494702</v>
+        <v>0.1284216734542145</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -673,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.088493</v>
+        <v>0.08849299999999999</v>
       </c>
       <c r="N4">
         <v>0.265479</v>
@@ -685,16 +691,16 @@
         <v>0.9052313210944106</v>
       </c>
       <c r="Q4">
-        <v>0.2938688522973333</v>
+        <v>0.06412677692433333</v>
       </c>
       <c r="R4">
-        <v>2.644819670676</v>
+        <v>0.577140992319</v>
       </c>
       <c r="S4">
-        <v>0.7430797129338617</v>
+        <v>0.1162513211181136</v>
       </c>
       <c r="T4">
-        <v>0.7430797129338618</v>
+        <v>0.1162513211181136</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,13 +708,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -717,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.320814666666667</v>
+        <v>0.7246536666666668</v>
       </c>
       <c r="H5">
-        <v>9.962444</v>
+        <v>2.173961</v>
       </c>
       <c r="I5">
-        <v>0.8208727378494701</v>
+        <v>0.1284216734542145</v>
       </c>
       <c r="J5">
-        <v>0.8208727378494702</v>
+        <v>0.1284216734542145</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,22 +747,270 @@
         <v>0.027793</v>
       </c>
       <c r="O5">
+        <v>0.09476867890558938</v>
+      </c>
+      <c r="P5">
         <v>0.09476867890558936</v>
       </c>
-      <c r="P5">
-        <v>0.09476867890558935</v>
-      </c>
       <c r="Q5">
-        <v>0.03076513401022223</v>
+        <v>0.006713433119222224</v>
       </c>
       <c r="R5">
-        <v>0.276886206092</v>
+        <v>0.06042089807300001</v>
       </c>
       <c r="S5">
-        <v>0.07779302491560847</v>
+        <v>0.01217035233610091</v>
       </c>
       <c r="T5">
-        <v>0.07779302491560847</v>
+        <v>0.01217035233610091</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>4.641773333333333</v>
+      </c>
+      <c r="H6">
+        <v>13.92532</v>
+      </c>
+      <c r="I6">
+        <v>0.8226057862976579</v>
+      </c>
+      <c r="J6">
+        <v>0.8226057862976578</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.08849299999999999</v>
+      </c>
+      <c r="N6">
+        <v>0.265479</v>
+      </c>
+      <c r="O6">
+        <v>0.9052313210944106</v>
+      </c>
+      <c r="P6">
+        <v>0.9052313210944106</v>
+      </c>
+      <c r="Q6">
+        <v>0.4107644475866666</v>
+      </c>
+      <c r="R6">
+        <v>3.696880028279999</v>
+      </c>
+      <c r="S6">
+        <v>0.7446485226701353</v>
+      </c>
+      <c r="T6">
+        <v>0.7446485226701351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.641773333333333</v>
+      </c>
+      <c r="H7">
+        <v>13.92532</v>
+      </c>
+      <c r="I7">
+        <v>0.8226057862976579</v>
+      </c>
+      <c r="J7">
+        <v>0.8226057862976578</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.009264333333333334</v>
+      </c>
+      <c r="N7">
+        <v>0.027793</v>
+      </c>
+      <c r="O7">
+        <v>0.09476867890558938</v>
+      </c>
+      <c r="P7">
+        <v>0.09476867890558936</v>
+      </c>
+      <c r="Q7">
+        <v>0.04300293541777778</v>
+      </c>
+      <c r="R7">
+        <v>0.38702641876</v>
+      </c>
+      <c r="S7">
+        <v>0.07795726362752262</v>
+      </c>
+      <c r="T7">
+        <v>0.07795726362752259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.004650666666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.013952</v>
+      </c>
+      <c r="I8">
+        <v>0.0008241818450437709</v>
+      </c>
+      <c r="J8">
+        <v>0.0008241818450437709</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.08849299999999999</v>
+      </c>
+      <c r="N8">
+        <v>0.265479</v>
+      </c>
+      <c r="O8">
+        <v>0.9052313210944106</v>
+      </c>
+      <c r="P8">
+        <v>0.9052313210944106</v>
+      </c>
+      <c r="Q8">
+        <v>0.0004115514453333333</v>
+      </c>
+      <c r="R8">
+        <v>0.003703963008</v>
+      </c>
+      <c r="S8">
+        <v>0.0007460752204110015</v>
+      </c>
+      <c r="T8">
+        <v>0.0007460752204110015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.004650666666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.013952</v>
+      </c>
+      <c r="I9">
+        <v>0.0008241818450437709</v>
+      </c>
+      <c r="J9">
+        <v>0.0008241818450437709</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.009264333333333334</v>
+      </c>
+      <c r="N9">
+        <v>0.027793</v>
+      </c>
+      <c r="O9">
+        <v>0.09476867890558938</v>
+      </c>
+      <c r="P9">
+        <v>0.09476867890558936</v>
+      </c>
+      <c r="Q9">
+        <v>4.308532622222223E-05</v>
+      </c>
+      <c r="R9">
+        <v>0.0003877679360000001</v>
+      </c>
+      <c r="S9">
+        <v>7.810662463276934E-05</v>
+      </c>
+      <c r="T9">
+        <v>7.810662463276932E-05</v>
       </c>
     </row>
   </sheetData>
